--- a/testCase/163Mail.xlsx
+++ b/testCase/163Mail.xlsx
@@ -8,7 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginWeb163" sheetId="13" r:id="rId2"/>
+    <sheet name="LoginWeb139" sheetId="17" r:id="rId2"/>
+    <sheet name="LoginWebQQ" sheetId="16" r:id="rId3"/>
+    <sheet name="LoginWeb163" sheetId="13" r:id="rId4"/>
+    <sheet name="LoginWeb189" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,12 +119,63 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>登录189web版</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginWeb189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginWeb139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginWebQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录139web版</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录QQweb版</t>
+    <rPh sb="0" eb="1">
+      <t>deng'luban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +207,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -574,22 +634,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -603,10 +665,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -619,14 +687,81 @@
       <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -640,6 +775,132 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="59.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="59.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -649,7 +910,7 @@
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="56.625" customWidth="1"/>
+    <col min="5" max="5" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -696,4 +957,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="59.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testCase/163Mail.xlsx
+++ b/testCase/163Mail.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>Chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +652,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -688,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="6" t="s">
@@ -697,7 +712,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -718,7 +733,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -730,7 +745,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
@@ -739,7 +754,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -751,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6" t="s">

--- a/testCase/163Mail.xlsx
+++ b/testCase/163Mail.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,9 +169,6 @@
   <si>
     <t>Chrome</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Firefox</t>
@@ -652,7 +649,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -703,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="6" t="s">
@@ -712,7 +709,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -733,7 +730,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -745,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6" t="s">
@@ -754,7 +751,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -766,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="6" t="s">
